--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl28-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl28-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Ccl28</t>
+  </si>
+  <si>
+    <t>Ccr10</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ccl28</t>
-  </si>
-  <si>
-    <t>Ccr10</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1190226666666667</v>
+        <v>0.1395456666666667</v>
       </c>
       <c r="H2">
-        <v>0.357068</v>
+        <v>0.418637</v>
       </c>
       <c r="I2">
-        <v>0.4275300890338463</v>
+        <v>0.5708284189068497</v>
       </c>
       <c r="J2">
-        <v>0.4275300890338463</v>
+        <v>0.5708284189068498</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.228192</v>
+        <v>1.058783666666667</v>
       </c>
       <c r="N2">
-        <v>0.6845760000000001</v>
+        <v>3.176351</v>
       </c>
       <c r="O2">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947701</v>
       </c>
       <c r="P2">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947702</v>
       </c>
       <c r="Q2">
-        <v>0.027160020352</v>
+        <v>0.1477486726207778</v>
       </c>
       <c r="R2">
-        <v>0.244440183168</v>
+        <v>1.329738053587</v>
       </c>
       <c r="S2">
-        <v>0.05448427644580162</v>
+        <v>0.2862625832090451</v>
       </c>
       <c r="T2">
-        <v>0.05448427644580162</v>
+        <v>0.2862625832090452</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1190226666666667</v>
+        <v>0.1395456666666667</v>
       </c>
       <c r="H3">
-        <v>0.357068</v>
+        <v>0.418637</v>
       </c>
       <c r="I3">
-        <v>0.4275300890338463</v>
+        <v>0.5708284189068497</v>
       </c>
       <c r="J3">
-        <v>0.4275300890338463</v>
+        <v>0.5708284189068498</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>3.010662</v>
       </c>
       <c r="O3">
-        <v>0.5604602731280042</v>
+        <v>0.475327031240749</v>
       </c>
       <c r="P3">
-        <v>0.5604602731280042</v>
+        <v>0.4753270312407492</v>
       </c>
       <c r="Q3">
-        <v>0.119445673224</v>
+        <v>0.140041611966</v>
       </c>
       <c r="R3">
-        <v>1.075011059016</v>
+        <v>1.260374507694</v>
       </c>
       <c r="S3">
-        <v>0.2396136304703494</v>
+        <v>0.2713301777068435</v>
       </c>
       <c r="T3">
-        <v>0.2396136304703494</v>
+        <v>0.2713301777068436</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1190226666666667</v>
+        <v>0.1395456666666667</v>
       </c>
       <c r="H4">
-        <v>0.357068</v>
+        <v>0.418637</v>
       </c>
       <c r="I4">
-        <v>0.4275300890338463</v>
+        <v>0.5708284189068497</v>
       </c>
       <c r="J4">
-        <v>0.4275300890338463</v>
+        <v>0.5708284189068498</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5588430000000001</v>
+        <v>0.048954</v>
       </c>
       <c r="N4">
-        <v>1.676529</v>
+        <v>0.146862</v>
       </c>
       <c r="O4">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448066</v>
       </c>
       <c r="P4">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448067</v>
       </c>
       <c r="Q4">
-        <v>0.06651498410800001</v>
+        <v>0.006831318565999999</v>
       </c>
       <c r="R4">
-        <v>0.598634856972</v>
+        <v>0.06148186709399999</v>
       </c>
       <c r="S4">
-        <v>0.1334321821176952</v>
+        <v>0.01323565799096094</v>
       </c>
       <c r="T4">
-        <v>0.1334321821176952</v>
+        <v>0.01323565799096095</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1395456666666667</v>
+        <v>0.104916</v>
       </c>
       <c r="H5">
-        <v>0.418637</v>
+        <v>0.314748</v>
       </c>
       <c r="I5">
-        <v>0.5012488206248173</v>
+        <v>0.4291715810931503</v>
       </c>
       <c r="J5">
-        <v>0.5012488206248175</v>
+        <v>0.4291715810931503</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.228192</v>
+        <v>1.058783666666667</v>
       </c>
       <c r="N5">
-        <v>0.6845760000000001</v>
+        <v>3.176351</v>
       </c>
       <c r="O5">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947701</v>
       </c>
       <c r="P5">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947702</v>
       </c>
       <c r="Q5">
-        <v>0.031843204768</v>
+        <v>0.111083347172</v>
       </c>
       <c r="R5">
-        <v>0.286588842912</v>
+        <v>0.9997501245480002</v>
       </c>
       <c r="S5">
-        <v>0.06387896433856029</v>
+        <v>0.215223631785725</v>
       </c>
       <c r="T5">
-        <v>0.0638789643385603</v>
+        <v>0.215223631785725</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1395456666666667</v>
+        <v>0.104916</v>
       </c>
       <c r="H6">
-        <v>0.418637</v>
+        <v>0.314748</v>
       </c>
       <c r="I6">
-        <v>0.5012488206248173</v>
+        <v>0.4291715810931503</v>
       </c>
       <c r="J6">
-        <v>0.5012488206248175</v>
+        <v>0.4291715810931503</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,22 +809,22 @@
         <v>3.010662</v>
       </c>
       <c r="O6">
-        <v>0.5604602731280042</v>
+        <v>0.475327031240749</v>
       </c>
       <c r="P6">
-        <v>0.5604602731280042</v>
+        <v>0.4753270312407492</v>
       </c>
       <c r="Q6">
-        <v>0.140041611966</v>
+        <v>0.105288871464</v>
       </c>
       <c r="R6">
-        <v>1.260374507694</v>
+        <v>0.9475998431760001</v>
       </c>
       <c r="S6">
-        <v>0.2809300509124751</v>
+        <v>0.2039968535339055</v>
       </c>
       <c r="T6">
-        <v>0.2809300509124751</v>
+        <v>0.2039968535339056</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1395456666666667</v>
+        <v>0.104916</v>
       </c>
       <c r="H7">
-        <v>0.418637</v>
+        <v>0.314748</v>
       </c>
       <c r="I7">
-        <v>0.5012488206248173</v>
+        <v>0.4291715810931503</v>
       </c>
       <c r="J7">
-        <v>0.5012488206248175</v>
+        <v>0.4291715810931503</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,214 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.5588430000000001</v>
+        <v>0.048954</v>
       </c>
       <c r="N7">
-        <v>1.676529</v>
+        <v>0.146862</v>
       </c>
       <c r="O7">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448066</v>
       </c>
       <c r="P7">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448067</v>
       </c>
       <c r="Q7">
-        <v>0.077984118997</v>
+        <v>0.005136057864</v>
       </c>
       <c r="R7">
-        <v>0.701857070973</v>
+        <v>0.046224520776</v>
       </c>
       <c r="S7">
-        <v>0.1564398053737819</v>
+        <v>0.009951095773519721</v>
       </c>
       <c r="T7">
-        <v>0.156439805373782</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.01982766666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.059483</v>
-      </c>
-      <c r="I8">
-        <v>0.07122109034133633</v>
-      </c>
-      <c r="J8">
-        <v>0.07122109034133633</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.228192</v>
-      </c>
-      <c r="N8">
-        <v>0.6845760000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.1274396301998951</v>
-      </c>
-      <c r="P8">
-        <v>0.1274396301998951</v>
-      </c>
-      <c r="Q8">
-        <v>0.004524514912000001</v>
-      </c>
-      <c r="R8">
-        <v>0.040720634208</v>
-      </c>
-      <c r="S8">
-        <v>0.009076389415533225</v>
-      </c>
-      <c r="T8">
-        <v>0.009076389415533225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.01982766666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.059483</v>
-      </c>
-      <c r="I9">
-        <v>0.07122109034133633</v>
-      </c>
-      <c r="J9">
-        <v>0.07122109034133633</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>1.003554</v>
-      </c>
-      <c r="N9">
-        <v>3.010662</v>
-      </c>
-      <c r="O9">
-        <v>0.5604602731280042</v>
-      </c>
-      <c r="P9">
-        <v>0.5604602731280042</v>
-      </c>
-      <c r="Q9">
-        <v>0.019898134194</v>
-      </c>
-      <c r="R9">
-        <v>0.179083207746</v>
-      </c>
-      <c r="S9">
-        <v>0.03991659174517962</v>
-      </c>
-      <c r="T9">
-        <v>0.03991659174517962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.01982766666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.059483</v>
-      </c>
-      <c r="I10">
-        <v>0.07122109034133633</v>
-      </c>
-      <c r="J10">
-        <v>0.07122109034133633</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.5588430000000001</v>
-      </c>
-      <c r="N10">
-        <v>1.676529</v>
-      </c>
-      <c r="O10">
-        <v>0.3121000966721006</v>
-      </c>
-      <c r="P10">
-        <v>0.3121000966721006</v>
-      </c>
-      <c r="Q10">
-        <v>0.011080552723</v>
-      </c>
-      <c r="R10">
-        <v>0.09972497450700001</v>
-      </c>
-      <c r="S10">
-        <v>0.02222810918062348</v>
-      </c>
-      <c r="T10">
-        <v>0.02222810918062348</v>
+        <v>0.009951095773519724</v>
       </c>
     </row>
   </sheetData>
